--- a/biology/Botanique/Clowesia/Clowesia.xlsx
+++ b/biology/Botanique/Clowesia/Clowesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clowesia est un genre de la famille des Orchidaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Clowesia a été donné en hommage au révérend John Clowes (1777-1846), horticulteur orchidophile anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Clowesia a été donné en hommage au révérend John Clowes (1777-1846), horticulteur orchidophile anglais.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catasetum</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique centrale et Amérique tropicale.
 </t>
@@ -603,7 +621,9 @@
           <t>Liste partielle d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Clowesia amazonica  K.G.Lacerda &amp; V.P.Castro (1995)
 Clowesia dodsoniana  E.Aguirre (1986)
